--- a/VoelkenrathMA/Exp15_v0.2.8_eop.xlsx
+++ b/VoelkenrathMA/Exp15_v0.2.8_eop.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\at4991\Methanation\Excel_carmen_conversions\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smmcvoel\Documents\GitHub\Abschlussarbeiten_Behr\VoelkenrathMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5988A19-ADCC-4E8B-93E2-E3E73AB69E59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1900" windowWidth="31200" windowHeight="22920" firstSheet="1" activeTab="1" xr2:uid="{D71D9082-2C33-4142-A7A8-FC02546FB003}"/>
+    <workbookView xWindow="3795" yWindow="1905" windowWidth="31200" windowHeight="22920" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -101,7 +100,7 @@
     <definedName name="wall_thickness">'User questionnaire'!$E$31</definedName>
     <definedName name="WHSV">'User questionnaire'!$E$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -111,12 +110,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Daniel Schmider</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{B3EA3FA6-436B-4C75-A17C-7CDD00E6AEFF}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{73904AF4-255F-4CE3-83A9-460D69E6BD90}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{BA4F25F8-DA4B-41E1-AE49-ED485BC54989}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{62ECBD78-B349-4907-80C7-B7FF270BEE6B}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{7B38940D-74A2-40CA-8DA6-C6616F827127}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{61424FEE-7446-4AA0-B428-EFFA5936A777}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{7F5A71A3-5EE7-4D04-BA7A-2D56C7C2505D}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{9D09579B-B2CE-4F21-9424-1CDB6597AF49}">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{66BC4928-C262-4C33-9619-63DCF27095B9}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{16DB349E-8E9A-46FF-9492-0DE4CFF84372}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{84AFA1E4-580B-449A-AFB2-8CFC6D82196E}">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{5DF6BD6C-44F2-43DB-97FF-EA20D5784099}">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{945D6F5D-72C4-45C2-8C39-CFFD318D4124}">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{532C0701-5F45-48BE-AD5A-8B12471D4A36}">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{D37DDCDA-098F-4AAB-B8E8-615F4E36EFB2}">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{A197657D-9745-4764-99FA-664B7D2B6576}">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{35BB5BEF-9FD3-4CF5-8DA4-3106E7B89388}">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{D0EA56CA-8F25-474C-9C29-D1F71A1AD74A}">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{288220C1-64D2-47BA-A195-853DE8B7C148}">
+    <comment ref="G26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{477385E9-B92B-489D-A75B-9A97C53DFDA5}">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{97B94656-25C1-485D-B926-3E3A74C74C91}">
+    <comment ref="C28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{BC66259F-A58B-4DD1-9EFB-59EA595642ED}">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{4470EAF8-7263-4F07-A056-BE090C57BB63}">
+    <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{9CA2BA5F-446B-4D3F-AB42-80EE5709737F}">
+    <comment ref="C31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{0185ED88-8D5D-4010-BD7F-89537AAF0F83}">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{0809EB28-0C54-4634-9A7A-AC33178EC140}">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{43B5B34E-4CF9-4234-9436-0D2990FFD327}">
+    <comment ref="C32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{028AA3D5-1C87-40AF-B578-F49BB29EF304}">
+    <comment ref="G32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{F9250FC0-8282-47B9-B8AC-8031A24D8000}">
+    <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{8FF68555-0831-4FF8-AD39-560574FEF521}">
+    <comment ref="G33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{CC7BC7A1-73F4-4C9D-9A5B-131F8FB91FA4}">
+    <comment ref="C34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{19D282E9-DCDF-4090-8730-8407BA4C611E}">
+    <comment ref="G34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{652DAB2C-0ED1-441B-83FC-8498AD689A52}">
+    <comment ref="C35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{0359582C-11A1-494D-BD0A-A0C5D0310F30}">
+    <comment ref="G35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{ADE262AE-52DE-4FF7-BE90-F540161F3EA8}">
+    <comment ref="C37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -791,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{81D4992C-3FD8-4AAA-9DF2-F202ED28D988}">
+    <comment ref="E37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{102CEB81-5512-4284-8AF4-37E104BCAEE5}">
+    <comment ref="C38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{7BA4D5AD-FC5D-4E3E-B932-48BE9DA99797}">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{3A549995-3E3D-49AC-97EB-F7BB55493DAD}">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{A6EA2044-8F85-4596-9190-AE05E8668260}">
+    <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -871,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{07387A37-FCD9-4BD2-B6F0-64316AB7BB0A}">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -885,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{3F92FD35-87FC-42D8-AEF7-62C2701DFF6B}">
+    <comment ref="C44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{1C189861-79EA-418E-A21D-91DA586E6608}">
+    <comment ref="C45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{0F05852D-4ADF-4CDB-ADD2-CD4FB911F374}">
+    <comment ref="C46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -937,7 +936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{ADBF1E55-071B-4E63-870E-37145ED8DEA6}">
+    <comment ref="C47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{30AED83B-79D2-45CE-9B77-E39BC5F20790}">
+    <comment ref="C49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -965,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{08F2105B-4977-47A0-B966-737332FD2A87}">
+    <comment ref="C50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -979,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{627D0A24-A8A7-46A7-B4C7-63CCD24654D5}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{1EBFE11C-50A7-4E9B-9045-E0C178F6753E}">
+    <comment ref="C52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{028C823F-E865-487D-889C-93DC26D5078D}">
+    <comment ref="C54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{497205F1-DD39-4D03-A735-A3C0A7A2FD38}">
+    <comment ref="G54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{3233FF06-CF17-482D-B696-52F4A0FEB816}">
+    <comment ref="C55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="0" shapeId="0" xr:uid="{9FE1B678-3781-461E-9DCA-9A851C99D937}">
+    <comment ref="G55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{E413027D-FB9E-4CF8-9A46-66F39F8CFF68}">
+    <comment ref="C57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{7322823B-5A1F-4F88-A52A-1A254B97DDD6}">
+    <comment ref="C68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{A40004D4-070D-4249-B5AB-3CA08215151A}">
+    <comment ref="C69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{1F4F2F38-2898-42FE-8EA5-EC85990D0991}">
+    <comment ref="C70" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{60E38A84-5DA2-423A-8C76-F7F06E59BAB8}">
+    <comment ref="C77" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{5051ED0F-F1EC-4A0F-8B68-504F5500789C}">
+    <comment ref="C78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1260,12 +1259,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Daniel Schmider</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5E991A46-1BCE-44F7-88ED-ECD8FE290AB6}">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9B8CDF99-D116-4408-BB58-129AE95708ED}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{0ABBAE1B-E106-4743-965A-3D049D48A5E5}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3780,7 +3779,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
@@ -5046,10 +5045,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5064,16 +5105,10 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5086,48 +5121,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="35" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5137,14 +5145,14 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5153,15 +5161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6406,194 +6405,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6C6243-B130-4E20-BC28-32933BDFC86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A89"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="223.1796875" style="84" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="84"/>
+    <col min="1" max="1" width="223.140625" style="84" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="148" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" s="148" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="165" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="147" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="85"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="166" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="166" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="84" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="84" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="85" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="85" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="163" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="167" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="85"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="163" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="167" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="163" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="159" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="164" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="85" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A88" s="84" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="84" t="s">
         <v>481</v>
       </c>
@@ -6606,16 +6605,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116EC7E-FF47-41E6-84B7-08F10BBFBDE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>394</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>532</v>
       </c>
@@ -6654,25 +6653,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="20" width="9.1796875" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" customWidth="1"/>
-    <col min="22" max="1025" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>128</v>
       </c>
@@ -6836,7 +6835,7 @@
       </c>
       <c r="S5" s="24"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>194</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>197</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>199</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>151</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>8.03E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>52</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>2.9200000000000002E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>1.7E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>201</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>203</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>205</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>82</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>135</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>1.8433100000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>206</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>208</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>209</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>210</v>
       </c>
@@ -7941,12 +7940,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>73</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>128</v>
       </c>
@@ -8311,12 +8310,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>220</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>25</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>58.69</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>221</v>
       </c>
@@ -8352,15 +8351,15 @@
         <v>2.6599999999999999E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:36" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="B43" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>159</v>
       </c>
@@ -8376,50 +8375,50 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D36B459-53A3-41E5-A228-4F08C368D4BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" customWidth="1"/>
-    <col min="22" max="22" width="39.6328125" customWidth="1"/>
-    <col min="23" max="1025" width="10.453125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="39.5703125" customWidth="1"/>
+    <col min="23" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="207"/>
+      <c r="E1" s="210"/>
       <c r="F1" s="1" t="str">
         <f ca="1">INDIRECT("'" &amp; $B$40 &amp; "'!" &amp; B39 &amp; 1)</f>
         <v>Le SiO2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -8430,7 +8429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -8571,7 +8570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="22">
@@ -8704,7 +8703,7 @@
       </c>
       <c r="U9" s="24"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="G10" s="10" t="s">
         <v>50</v>
       </c>
@@ -8740,7 +8739,7 @@
       </c>
       <c r="U10" s="24"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -8881,12 +8880,12 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="M15" s="208" t="s">
+      <c r="M15" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="208"/>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="211"/>
+    </row>
+    <row r="16" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>78</v>
       </c>
@@ -8970,17 +8969,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="208" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="208"/>
+      <c r="B19" s="211"/>
       <c r="G19" s="25"/>
       <c r="H19" s="39" t="s">
         <v>85</v>
@@ -8991,7 +8990,7 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
@@ -9091,7 +9090,7 @@
       </c>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>95</v>
       </c>
@@ -9117,7 +9116,7 @@
       </c>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G25" s="10" t="s">
         <v>100</v>
       </c>
@@ -9132,11 +9131,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="208" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="208"/>
+      <c r="B26" s="211"/>
       <c r="G26" s="10" t="s">
         <v>103</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -9163,7 +9162,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>106</v>
       </c>
@@ -9180,7 +9179,7 @@
       </c>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>108</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="2" t="s">
         <v>110</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>114</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>117</v>
       </c>
@@ -9260,25 +9259,25 @@
       <c r="J33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L33" s="209" t="s">
+      <c r="L33" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
+      <c r="M33" s="212"/>
+      <c r="N33" s="212"/>
+      <c r="O33" s="212"/>
+      <c r="P33" s="212"/>
+      <c r="Q33" s="212"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="212"/>
+      <c r="T33" s="212"/>
       <c r="U33" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="V33" s="210" t="s">
+      <c r="V33" s="207" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>123</v>
       </c>
@@ -9301,27 +9300,27 @@
       <c r="J34" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="211" t="s">
+      <c r="L34" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="211"/>
-      <c r="N34" s="211"/>
-      <c r="O34" s="211" t="s">
+      <c r="M34" s="208"/>
+      <c r="N34" s="208"/>
+      <c r="O34" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="P34" s="211"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="212" t="s">
+      <c r="P34" s="208"/>
+      <c r="Q34" s="208"/>
+      <c r="R34" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="S34" s="212"/>
-      <c r="T34" s="212"/>
+      <c r="S34" s="209"/>
+      <c r="T34" s="209"/>
       <c r="U34" s="48">
         <v>1000</v>
       </c>
-      <c r="V34" s="210"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V34" s="207"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>127</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
         <v>129</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
         <v>131</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>136</v>
       </c>
@@ -9497,7 +9496,7 @@
       </c>
       <c r="T38" s="54"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>142</v>
       </c>
@@ -9542,7 +9541,7 @@
       </c>
       <c r="T39" s="54"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
         <v>148</v>
       </c>
@@ -9579,7 +9578,7 @@
       <c r="S40" s="58"/>
       <c r="T40" s="54"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="68" t="s">
         <v>152</v>
       </c>
@@ -9604,7 +9603,7 @@
       <c r="S41" s="58"/>
       <c r="T41" s="54"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
         <v>154</v>
       </c>
@@ -9627,7 +9626,7 @@
       <c r="S42" s="75"/>
       <c r="T42" s="76"/>
     </row>
-    <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="77" t="s">
         <v>155</v>
       </c>
@@ -9636,10 +9635,10 @@
         <v>Ni</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>4.3248174114185565</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -9664,7 +9663,7 @@
       </c>
       <c r="P46" s="80"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -9676,22 +9675,22 @@
         <v>0.61594406980442151</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="L33:T33"/>
     <mergeCell ref="V33:V34"/>
     <mergeCell ref="L34:N34"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="R34:T34"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="L33:T33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9699,29 +9698,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F69CDEC-F390-49E3-8B75-00BC05516ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="83" customWidth="1"/>
-    <col min="6" max="6" width="1.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="98" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="83" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="98" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" customWidth="1"/>
     <col min="9" max="9" width="45" customWidth="1"/>
-    <col min="10" max="10" width="50.1796875" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="50.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="131" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="131" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -9739,7 +9738,7 @@
       <c r="O1" s="84"/>
       <c r="P1" s="84"/>
     </row>
-    <row r="2" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
       <c r="B2" s="85" t="s">
         <v>220</v>
@@ -9747,14 +9746,14 @@
       <c r="C2" s="132" t="s">
         <v>449</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="177" t="s">
         <v>543</v>
       </c>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
       <c r="L2" s="84"/>
@@ -9763,18 +9762,18 @@
       <c r="O2" s="84"/>
       <c r="P2" s="84"/>
     </row>
-    <row r="3" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
       <c r="C3" s="133" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="190"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
       <c r="L3" s="84"/>
@@ -9783,18 +9782,18 @@
       <c r="O3" s="84"/>
       <c r="P3" s="84"/>
     </row>
-    <row r="4" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="182"/>
       <c r="J4" s="84"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -9803,18 +9802,18 @@
       <c r="O4" s="84"/>
       <c r="P4" s="84"/>
     </row>
-    <row r="5" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="133" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="190"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="182"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
       <c r="L5" s="84"/>
@@ -9823,20 +9822,20 @@
       <c r="O5" s="84"/>
       <c r="P5" s="84"/>
     </row>
-    <row r="6" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="133" t="s">
         <v>491</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="182"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
       <c r="L6" s="84"/>
@@ -9845,20 +9844,20 @@
       <c r="O6" s="84"/>
       <c r="P6" s="84"/>
     </row>
-    <row r="7" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="133" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="180" t="s">
         <v>545</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="190"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="182"/>
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
@@ -9867,20 +9866,20 @@
       <c r="O7" s="84"/>
       <c r="P7" s="84"/>
     </row>
-    <row r="8" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="133" t="s">
         <v>451</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="182"/>
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
@@ -9889,20 +9888,20 @@
       <c r="O8" s="84"/>
       <c r="P8" s="84"/>
     </row>
-    <row r="9" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="169" t="s">
         <v>493</v>
       </c>
-      <c r="D9" s="191">
+      <c r="D9" s="184">
         <v>44320</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="193"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
@@ -9911,20 +9910,20 @@
       <c r="O9" s="84"/>
       <c r="P9" s="84"/>
     </row>
-    <row r="10" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="133" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="194" t="s">
+      <c r="D10" s="187" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="196"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="188"/>
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
@@ -9933,20 +9932,20 @@
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
     </row>
-    <row r="11" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="133" t="s">
         <v>454</v>
       </c>
-      <c r="D11" s="194" t="s">
+      <c r="D11" s="187" t="s">
         <v>455</v>
       </c>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="196"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="188"/>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
@@ -9955,20 +9954,20 @@
       <c r="O11" s="84"/>
       <c r="P11" s="84"/>
     </row>
-    <row r="12" spans="1:16" s="155" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="155" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="134" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="192" t="s">
         <v>541</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="191"/>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -9977,7 +9976,7 @@
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
     </row>
-    <row r="13" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="155" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -9995,7 +9994,7 @@
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
     </row>
-    <row r="14" spans="1:16" s="146" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -10013,7 +10012,7 @@
       <c r="O14" s="84"/>
       <c r="P14" s="84"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85" t="s">
@@ -10039,7 +10038,7 @@
       <c r="O15" s="84"/>
       <c r="P15" s="84"/>
     </row>
-    <row r="16" spans="1:16" s="146" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="145"/>
       <c r="B16" s="88" t="s">
         <v>400</v>
@@ -10065,7 +10064,7 @@
       <c r="O16" s="84"/>
       <c r="P16" s="84"/>
     </row>
-    <row r="17" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="85"/>
@@ -10083,8 +10082,8 @@
       <c r="O17" s="84"/>
       <c r="P17" s="84"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="179"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="174"/>
       <c r="B18" s="88" t="s">
         <v>246</v>
       </c>
@@ -10114,8 +10113,8 @@
       <c r="O18" s="84"/>
       <c r="P18" s="84"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="179"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="174"/>
       <c r="B19" s="89"/>
       <c r="C19" s="89" t="s">
         <v>15</v>
@@ -10143,8 +10142,8 @@
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
     </row>
-    <row r="20" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="179"/>
+    <row r="20" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="174"/>
       <c r="B20" s="89"/>
       <c r="C20" s="89" t="s">
         <v>460</v>
@@ -10172,8 +10171,8 @@
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
     </row>
-    <row r="21" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="179"/>
+    <row r="21" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="174"/>
       <c r="B21" s="89"/>
       <c r="C21" s="89" t="s">
         <v>368</v>
@@ -10201,8 +10200,8 @@
       <c r="O21" s="84"/>
       <c r="P21" s="84"/>
     </row>
-    <row r="22" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="179"/>
+    <row r="22" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="174"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89" t="s">
         <v>379</v>
@@ -10228,8 +10227,8 @@
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
     </row>
-    <row r="23" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="179"/>
+    <row r="23" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="174"/>
       <c r="B23" s="89"/>
       <c r="C23" s="89" t="s">
         <v>380</v>
@@ -10259,8 +10258,8 @@
       <c r="O23" s="84"/>
       <c r="P23" s="84"/>
     </row>
-    <row r="24" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="179"/>
+    <row r="24" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="174"/>
       <c r="B24" s="89"/>
       <c r="C24" s="89" t="s">
         <v>151</v>
@@ -10288,13 +10287,13 @@
       <c r="O24" s="84"/>
       <c r="P24" s="84"/>
     </row>
-    <row r="25" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="179"/>
+    <row r="25" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="174"/>
       <c r="B25" s="89"/>
       <c r="C25" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="198" t="s">
+      <c r="D25" s="175" t="s">
         <v>397</v>
       </c>
       <c r="E25" s="108"/>
@@ -10307,7 +10306,7 @@
         <f>IF(ISBLANK(E25),"",IF(Checks!I18=FALSE,"Not a number",IF(Checks!J18=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J25" s="186" t="str">
+      <c r="J25" s="173" t="str">
         <f>IF(AND(thermal_mode="no",E69="no",ISBLANK(E34),ISBLANK(E35)),"thermal conductivities necessary, since 'isothermal' and 'adiabatic' are 'no' and 2* and 3* are not provided","")</f>
         <v/>
       </c>
@@ -10318,13 +10317,13 @@
       <c r="O25" s="84"/>
       <c r="P25" s="84"/>
     </row>
-    <row r="26" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="179"/>
+    <row r="26" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="174"/>
       <c r="B26" s="89"/>
       <c r="C26" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="D26" s="182"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="108"/>
       <c r="F26" s="89"/>
       <c r="G26" s="96" t="s">
@@ -10335,7 +10334,7 @@
         <f>IF(ISBLANK(E26),"",IF(Checks!I19=FALSE,"Not a number",IF(Checks!J19=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J26" s="186"/>
+      <c r="J26" s="173"/>
       <c r="K26" s="84"/>
       <c r="L26" s="84"/>
       <c r="M26" s="84"/>
@@ -10343,8 +10342,8 @@
       <c r="O26" s="84"/>
       <c r="P26" s="84"/>
     </row>
-    <row r="27" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="179"/>
+    <row r="27" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="174"/>
       <c r="B27" s="89"/>
       <c r="C27" s="89" t="s">
         <v>396</v>
@@ -10368,8 +10367,8 @@
       <c r="O27" s="84"/>
       <c r="P27" s="84"/>
     </row>
-    <row r="28" spans="1:16" s="157" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="179"/>
+    <row r="28" spans="1:16" s="157" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="174"/>
       <c r="B28" s="89"/>
       <c r="C28" s="89" t="s">
         <v>464</v>
@@ -10390,7 +10389,7 @@
       <c r="O28" s="84"/>
       <c r="P28" s="84"/>
     </row>
-    <row r="29" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84"/>
       <c r="B29" s="84"/>
       <c r="C29" s="85"/>
@@ -10408,8 +10407,8 @@
       <c r="O29" s="84"/>
       <c r="P29" s="84"/>
     </row>
-    <row r="30" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="179"/>
+    <row r="30" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="174"/>
       <c r="B30" s="88" t="s">
         <v>390</v>
       </c>
@@ -10430,7 +10429,7 @@
         <f>IF(ISBLANK(E30),"",IF(Checks!I23=FALSE,"Not a number",IF(Checks!J23=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J30" s="186" t="str">
+      <c r="J30" s="173" t="str">
         <f>IF(Checks!P23=FALSE,"You must provide a value for the wall temperature (if experiment is 'spaci'), and either complete sections 1*, 2* or 3* (unless 'adiabatic' or 'isothermal' is 'yes')","")</f>
         <v/>
       </c>
@@ -10441,13 +10440,13 @@
       <c r="O30" s="84"/>
       <c r="P30" s="84"/>
     </row>
-    <row r="31" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="179"/>
+    <row r="31" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="174"/>
       <c r="B31" s="88"/>
       <c r="C31" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="180" t="s">
+      <c r="D31" s="193" t="s">
         <v>397</v>
       </c>
       <c r="E31" s="108"/>
@@ -10460,7 +10459,7 @@
         <f>IF(ISBLANK(E31),"",IF(Checks!I24=FALSE,"Not a number",IF(Checks!J24=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J31" s="186"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="84"/>
       <c r="L31" s="84"/>
       <c r="M31" s="84"/>
@@ -10468,13 +10467,13 @@
       <c r="O31" s="84"/>
       <c r="P31" s="84"/>
     </row>
-    <row r="32" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="179"/>
+    <row r="32" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="174"/>
       <c r="B32" s="88"/>
       <c r="C32" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="181"/>
+      <c r="D32" s="194"/>
       <c r="E32" s="108"/>
       <c r="F32" s="89"/>
       <c r="G32" s="96" t="s">
@@ -10485,7 +10484,7 @@
         <f>IF(ISBLANK(E32),"",IF(Checks!I25=FALSE,"Not a number",IF(Checks!J25=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J32" s="186"/>
+      <c r="J32" s="173"/>
       <c r="K32" s="84"/>
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
@@ -10493,13 +10492,13 @@
       <c r="O32" s="84"/>
       <c r="P32" s="84"/>
     </row>
-    <row r="33" spans="1:16" s="142" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="179"/>
+    <row r="33" spans="1:16" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="174"/>
       <c r="B33" s="88"/>
       <c r="C33" s="89" t="s">
         <v>383</v>
       </c>
-      <c r="D33" s="182"/>
+      <c r="D33" s="176"/>
       <c r="E33" s="108"/>
       <c r="F33" s="89"/>
       <c r="G33" s="96" t="s">
@@ -10518,8 +10517,8 @@
       <c r="O33" s="84"/>
       <c r="P33" s="84"/>
     </row>
-    <row r="34" spans="1:16" s="142" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="179"/>
+    <row r="34" spans="1:16" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="174"/>
       <c r="B34" s="88"/>
       <c r="C34" s="89" t="s">
         <v>387</v>
@@ -10545,8 +10544,8 @@
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
     </row>
-    <row r="35" spans="1:16" s="142" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="179"/>
+    <row r="35" spans="1:16" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="174"/>
       <c r="B35" s="88"/>
       <c r="C35" s="89" t="s">
         <v>384</v>
@@ -10572,7 +10571,7 @@
       <c r="O35" s="84"/>
       <c r="P35" s="84"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="84"/>
       <c r="C36" s="84"/>
@@ -10590,8 +10589,8 @@
       <c r="O36" s="84"/>
       <c r="P36" s="84"/>
     </row>
-    <row r="37" spans="1:16" s="107" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="179"/>
+    <row r="37" spans="1:16" s="107" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="174"/>
       <c r="B37" s="88" t="s">
         <v>4</v>
       </c>
@@ -10619,8 +10618,8 @@
       <c r="O37" s="84"/>
       <c r="P37" s="84"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="179"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="174"/>
       <c r="B38" s="89"/>
       <c r="C38" s="89" t="s">
         <v>199</v>
@@ -10648,8 +10647,8 @@
       <c r="O38" s="84"/>
       <c r="P38" s="84"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="179"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="174"/>
       <c r="B39" s="89"/>
       <c r="C39" s="89" t="s">
         <v>369</v>
@@ -10673,7 +10672,7 @@
       <c r="O39" s="84"/>
       <c r="P39" s="84"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="84"/>
       <c r="B40" s="84"/>
       <c r="C40" s="84"/>
@@ -10691,15 +10690,15 @@
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="179"/>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="174"/>
       <c r="B41" s="88" t="s">
         <v>200</v>
       </c>
       <c r="C41" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="184" t="s">
+      <c r="D41" s="196" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="108"/>
@@ -10712,7 +10711,7 @@
         <f>IF(ISBLANK(E41),"",IF(Checks!I34=FALSE,"Not a number",IF(Checks!J34=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J41" s="186" t="str">
+      <c r="J41" s="173" t="str">
         <f>IF(Checks!P34=FALSE,"Only one of the values under 'SURFACE' should be provided","")</f>
         <v/>
       </c>
@@ -10723,13 +10722,13 @@
       <c r="O41" s="84"/>
       <c r="P41" s="84"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="179"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="174"/>
       <c r="B42" s="89"/>
       <c r="C42" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="184"/>
+      <c r="D42" s="196"/>
       <c r="E42" s="108"/>
       <c r="F42" s="89"/>
       <c r="G42" s="97" t="s">
@@ -10740,7 +10739,7 @@
         <f>IF(ISBLANK(E42),"",IF(Checks!I35=FALSE,"Not a number",IF(Checks!J35=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J42" s="186"/>
+      <c r="J42" s="173"/>
       <c r="K42" s="84"/>
       <c r="L42" s="84"/>
       <c r="M42" s="84"/>
@@ -10748,13 +10747,13 @@
       <c r="O42" s="84"/>
       <c r="P42" s="84"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="179"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="174"/>
       <c r="B43" s="89"/>
       <c r="C43" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="184"/>
+      <c r="D43" s="196"/>
       <c r="E43" s="152"/>
       <c r="F43" s="89"/>
       <c r="G43" s="97" t="s">
@@ -10765,7 +10764,7 @@
         <f>IF(ISBLANK(E43),"",IF(Checks!I36=FALSE,"Not a number",IF(Checks!J36=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J43" s="186"/>
+      <c r="J43" s="173"/>
       <c r="K43" s="84"/>
       <c r="L43" s="84"/>
       <c r="M43" s="84"/>
@@ -10773,13 +10772,13 @@
       <c r="O43" s="84"/>
       <c r="P43" s="84"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="179"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="174"/>
       <c r="B44" s="89"/>
       <c r="C44" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="184"/>
+      <c r="D44" s="196"/>
       <c r="E44" s="108">
         <v>20</v>
       </c>
@@ -10792,7 +10791,7 @@
         <f>IF(ISBLANK(E44),"",IF(Checks!I37=FALSE,"Not a number",IF(Checks!J37=FALSE,"Number must be between 0 and 100","")))</f>
         <v/>
       </c>
-      <c r="J44" s="186"/>
+      <c r="J44" s="173"/>
       <c r="K44" s="84"/>
       <c r="L44" s="84"/>
       <c r="M44" s="84"/>
@@ -10800,13 +10799,13 @@
       <c r="O44" s="84"/>
       <c r="P44" s="84"/>
     </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="179"/>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="174"/>
       <c r="B45" s="89"/>
       <c r="C45" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="184"/>
+      <c r="D45" s="196"/>
       <c r="E45" s="108"/>
       <c r="F45" s="89"/>
       <c r="G45" s="97" t="s">
@@ -10817,7 +10816,7 @@
         <f>IF(ISBLANK(E45),"",IF(Checks!I38=FALSE,"Not a number",IF(Checks!J38=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J45" s="186"/>
+      <c r="J45" s="173"/>
       <c r="K45" s="84"/>
       <c r="L45" s="84"/>
       <c r="M45" s="84"/>
@@ -10825,13 +10824,13 @@
       <c r="O45" s="84"/>
       <c r="P45" s="84"/>
     </row>
-    <row r="46" spans="1:16" s="157" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="179"/>
+    <row r="46" spans="1:16" s="157" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="174"/>
       <c r="B46" s="89"/>
       <c r="C46" s="89" t="s">
         <v>462</v>
       </c>
-      <c r="D46" s="184"/>
+      <c r="D46" s="196"/>
       <c r="E46" s="108"/>
       <c r="F46" s="89"/>
       <c r="G46" s="97" t="s">
@@ -10839,7 +10838,7 @@
       </c>
       <c r="H46" s="89"/>
       <c r="I46" s="93"/>
-      <c r="J46" s="186"/>
+      <c r="J46" s="173"/>
       <c r="K46" s="84"/>
       <c r="L46" s="84"/>
       <c r="M46" s="84"/>
@@ -10847,13 +10846,13 @@
       <c r="O46" s="84"/>
       <c r="P46" s="84"/>
     </row>
-    <row r="47" spans="1:16" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="179"/>
+    <row r="47" spans="1:16" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="174"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89" t="s">
         <v>391</v>
       </c>
-      <c r="D47" s="184"/>
+      <c r="D47" s="196"/>
       <c r="E47" s="108"/>
       <c r="F47" s="89"/>
       <c r="G47" s="97"/>
@@ -10862,7 +10861,7 @@
         <f>IF(ISBLANK(E47),"",IF(Checks!I40=FALSE,"Not a number",IF(Checks!J40=FALSE,"Must be positive number","")))</f>
         <v/>
       </c>
-      <c r="J47" s="186"/>
+      <c r="J47" s="173"/>
       <c r="K47" s="84"/>
       <c r="L47" s="84"/>
       <c r="M47" s="84"/>
@@ -10870,7 +10869,7 @@
       <c r="O47" s="84"/>
       <c r="P47" s="84"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="84"/>
       <c r="B48" s="84"/>
       <c r="C48" s="84"/>
@@ -10888,15 +10887,15 @@
       <c r="O48" s="84"/>
       <c r="P48" s="84"/>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="179"/>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="174"/>
       <c r="B49" s="88" t="s">
         <v>202</v>
       </c>
       <c r="C49" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="184" t="s">
+      <c r="D49" s="196" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="108"/>
@@ -10920,15 +10919,15 @@
       <c r="O49" s="84"/>
       <c r="P49" s="84"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="179"/>
-      <c r="B50" s="186" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="174"/>
+      <c r="B50" s="173" t="s">
         <v>468</v>
       </c>
       <c r="C50" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="181"/>
+      <c r="D50" s="194"/>
       <c r="E50" s="108"/>
       <c r="F50" s="89"/>
       <c r="G50" s="89" t="s">
@@ -10947,13 +10946,13 @@
       <c r="O50" s="84"/>
       <c r="P50" s="84"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="179"/>
-      <c r="B51" s="186"/>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="174"/>
+      <c r="B51" s="173"/>
       <c r="C51" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D51" s="181"/>
+      <c r="D51" s="194"/>
       <c r="E51" s="108">
         <v>4</v>
       </c>
@@ -10974,13 +10973,13 @@
       <c r="O51" s="84"/>
       <c r="P51" s="84"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="179"/>
-      <c r="B52" s="186"/>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="174"/>
+      <c r="B52" s="173"/>
       <c r="C52" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="185"/>
+      <c r="D52" s="197"/>
       <c r="E52" s="108"/>
       <c r="F52" s="89"/>
       <c r="G52" s="89" t="s">
@@ -10999,7 +10998,7 @@
       <c r="O52" s="84"/>
       <c r="P52" s="84"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="84"/>
       <c r="B53" s="84"/>
       <c r="C53" s="84"/>
@@ -11017,8 +11016,8 @@
       <c r="O53" s="84"/>
       <c r="P53" s="84"/>
     </row>
-    <row r="54" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="179"/>
+    <row r="54" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="174"/>
       <c r="B54" s="88" t="s">
         <v>466</v>
       </c>
@@ -11045,8 +11044,8 @@
       <c r="O54" s="84"/>
       <c r="P54" s="84"/>
     </row>
-    <row r="55" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="179"/>
+    <row r="55" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="174"/>
       <c r="B55" s="158"/>
       <c r="C55" s="89" t="s">
         <v>465</v>
@@ -11069,7 +11068,7 @@
       <c r="O55" s="84"/>
       <c r="P55" s="84"/>
     </row>
-    <row r="56" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84"/>
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
@@ -11087,8 +11086,8 @@
       <c r="O56" s="84"/>
       <c r="P56" s="84"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="179"/>
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="174"/>
       <c r="B57" s="88" t="s">
         <v>248</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F57" s="89"/>
-      <c r="G57" s="186" t="s">
+      <c r="G57" s="173" t="s">
         <v>226</v>
       </c>
       <c r="H57" s="89"/>
@@ -11121,8 +11120,8 @@
       <c r="O57" s="84"/>
       <c r="P57" s="84"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="179"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="174"/>
       <c r="B58" s="89"/>
       <c r="C58" s="92" t="s">
         <v>208</v>
@@ -11132,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="89"/>
-      <c r="G58" s="187"/>
+      <c r="G58" s="198"/>
       <c r="H58" s="89"/>
       <c r="I58" s="93" t="str">
         <f>IF(ISBLANK(E58),"",IF(Checks!I51=FALSE,"Not a number",IF(Checks!J51=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11146,8 +11145,8 @@
       <c r="O58" s="84"/>
       <c r="P58" s="84"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="179"/>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="174"/>
       <c r="B59" s="89"/>
       <c r="C59" s="92" t="s">
         <v>209</v>
@@ -11157,7 +11156,7 @@
         <v>0.04</v>
       </c>
       <c r="F59" s="89"/>
-      <c r="G59" s="187"/>
+      <c r="G59" s="198"/>
       <c r="H59" s="89"/>
       <c r="I59" s="93" t="str">
         <f>IF(ISBLANK(E59),"",IF(Checks!I52=FALSE,"Not a number",IF(Checks!J52=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11171,14 +11170,14 @@
       <c r="O59" s="84"/>
       <c r="P59" s="84"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="179"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="174"/>
       <c r="B60" s="89"/>
       <c r="C60" s="92"/>
       <c r="D60" s="90"/>
       <c r="E60" s="108"/>
       <c r="F60" s="89"/>
-      <c r="G60" s="187"/>
+      <c r="G60" s="198"/>
       <c r="H60" s="89"/>
       <c r="I60" s="93" t="str">
         <f>IF(ISBLANK(E60),"",IF(Checks!I53=FALSE,"Not a number",IF(Checks!J53=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11192,14 +11191,14 @@
       <c r="O60" s="84"/>
       <c r="P60" s="84"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="179"/>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="174"/>
       <c r="B61" s="89"/>
       <c r="C61" s="92"/>
       <c r="D61" s="90"/>
       <c r="E61" s="108"/>
       <c r="F61" s="89"/>
-      <c r="G61" s="187"/>
+      <c r="G61" s="198"/>
       <c r="H61" s="89"/>
       <c r="I61" s="93" t="str">
         <f>IF(ISBLANK(E61),"",IF(Checks!I54=FALSE,"Not a number",IF(Checks!J54=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11213,14 +11212,14 @@
       <c r="O61" s="84"/>
       <c r="P61" s="84"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="179"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="174"/>
       <c r="B62" s="89"/>
       <c r="C62" s="92"/>
       <c r="D62" s="90"/>
       <c r="E62" s="108"/>
       <c r="F62" s="89"/>
-      <c r="G62" s="187"/>
+      <c r="G62" s="198"/>
       <c r="H62" s="89"/>
       <c r="I62" s="93" t="str">
         <f>IF(ISBLANK(E62),"",IF(Checks!I55=FALSE,"Not a number",IF(Checks!J55=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11234,8 +11233,8 @@
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="179"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="174"/>
       <c r="B63" s="89"/>
       <c r="C63" s="92" t="s">
         <v>247</v>
@@ -11245,7 +11244,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="F63" s="89"/>
-      <c r="G63" s="187"/>
+      <c r="G63" s="198"/>
       <c r="H63" s="89"/>
       <c r="I63" s="93" t="str">
         <f>IF(ISBLANK(E63),"",IF(Checks!I56=FALSE,"Not a number",IF(Checks!J56=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11259,14 +11258,14 @@
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="179"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="174"/>
       <c r="B64" s="89"/>
       <c r="C64" s="92"/>
       <c r="D64" s="90"/>
       <c r="E64" s="108"/>
       <c r="F64" s="89"/>
-      <c r="G64" s="187"/>
+      <c r="G64" s="198"/>
       <c r="H64" s="89"/>
       <c r="I64" s="93" t="str">
         <f>IF(ISBLANK(E64),"",IF(Checks!I57=FALSE,"Not a number",IF(Checks!J57=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11280,14 +11279,14 @@
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="179"/>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="174"/>
       <c r="B65" s="89"/>
       <c r="C65" s="92"/>
       <c r="D65" s="90"/>
       <c r="E65" s="108"/>
       <c r="F65" s="89"/>
-      <c r="G65" s="187"/>
+      <c r="G65" s="198"/>
       <c r="H65" s="89"/>
       <c r="I65" s="93" t="str">
         <f>IF(ISBLANK(E65),"",IF(Checks!I58=FALSE,"Not a number",IF(Checks!J58=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11301,14 +11300,14 @@
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="179"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="174"/>
       <c r="B66" s="89"/>
       <c r="C66" s="92"/>
       <c r="D66" s="90"/>
       <c r="E66" s="108"/>
       <c r="F66" s="89"/>
-      <c r="G66" s="187"/>
+      <c r="G66" s="198"/>
       <c r="H66" s="89"/>
       <c r="I66" s="93" t="str">
         <f>IF(ISBLANK(E66),"",IF(Checks!I59=FALSE,"Not a number",IF(Checks!J59=FALSE,"Number must be between 0 and 1","")))</f>
@@ -11322,7 +11321,7 @@
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="84"/>
       <c r="B67" s="86"/>
       <c r="C67" s="84"/>
@@ -11340,8 +11339,8 @@
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="179"/>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="174"/>
       <c r="B68" s="91" t="s">
         <v>233</v>
       </c>
@@ -11372,8 +11371,8 @@
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
     </row>
-    <row r="69" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="179"/>
+    <row r="69" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="174"/>
       <c r="B69" s="91"/>
       <c r="C69" s="89" t="s">
         <v>385</v>
@@ -11399,8 +11398,8 @@
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="179"/>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="174"/>
       <c r="B70" s="89"/>
       <c r="C70" s="89" t="s">
         <v>461</v>
@@ -11426,7 +11425,7 @@
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="84"/>
       <c r="B71" s="87" t="s">
         <v>245</v>
@@ -11446,18 +11445,18 @@
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="183" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="195" t="s">
         <v>240</v>
       </c>
-      <c r="B72" s="183"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="183"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
       <c r="F72" s="84"/>
       <c r="G72" s="94"/>
       <c r="H72" s="84"/>
-      <c r="I72" s="183" t="str">
+      <c r="I72" s="195" t="str">
         <f>IF(AND(Checks!P23,Checks!P11,Checks!P30,Checks!P34,Checks!P42,Checks!P50,Checks!P61,Checks!P9),"YES","NO")</f>
         <v>YES</v>
       </c>
@@ -11469,16 +11468,16 @@
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="183"/>
-      <c r="B73" s="183"/>
-      <c r="C73" s="183"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="183"/>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="195"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
       <c r="F73" s="84"/>
       <c r="G73" s="94"/>
       <c r="H73" s="84"/>
-      <c r="I73" s="183"/>
+      <c r="I73" s="195"/>
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
       <c r="L73" s="84"/>
@@ -11487,16 +11486,16 @@
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="183"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="183"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="183"/>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="195"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
       <c r="F74" s="84"/>
       <c r="G74" s="94"/>
       <c r="H74" s="84"/>
-      <c r="I74" s="183"/>
+      <c r="I74" s="195"/>
       <c r="J74" s="84"/>
       <c r="K74" s="84"/>
       <c r="L74" s="84"/>
@@ -11505,7 +11504,7 @@
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="84"/>
       <c r="B75" s="84"/>
       <c r="C75" s="84"/>
@@ -11523,7 +11522,7 @@
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
     </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="84"/>
       <c r="B76" s="84"/>
       <c r="C76" s="84"/>
@@ -11541,18 +11540,18 @@
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="84"/>
       <c r="B77" s="84"/>
       <c r="C77" s="132" t="s">
         <v>518</v>
       </c>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="174"/>
+      <c r="D77" s="178"/>
+      <c r="E77" s="178"/>
+      <c r="F77" s="178"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="179"/>
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
       <c r="L77" s="84"/>
@@ -11561,18 +11560,18 @@
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
     </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="84"/>
       <c r="B78" s="84"/>
       <c r="C78" s="134" t="s">
         <v>519</v>
       </c>
-      <c r="D78" s="175"/>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="176"/>
-      <c r="I78" s="177"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="190"/>
+      <c r="F78" s="190"/>
+      <c r="G78" s="190"/>
+      <c r="H78" s="190"/>
+      <c r="I78" s="191"/>
       <c r="J78" s="84"/>
       <c r="K78" s="84"/>
       <c r="L78" s="84"/>
@@ -11581,7 +11580,7 @@
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="84"/>
       <c r="B79" s="84"/>
       <c r="C79" s="84"/>
@@ -11599,7 +11598,7 @@
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="84"/>
       <c r="B80" s="84"/>
       <c r="C80" s="84"/>
@@ -11617,7 +11616,7 @@
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="84"/>
       <c r="B81" s="84"/>
       <c r="C81" s="84"/>
@@ -11637,22 +11636,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J41:J47"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
     <mergeCell ref="D77:I77"/>
     <mergeCell ref="D78:I78"/>
     <mergeCell ref="D12:I12"/>
@@ -11669,6 +11652,22 @@
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J41:J47"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="J25:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="I72 A72">
     <cfRule type="expression" dxfId="54" priority="51">
@@ -11679,8 +11678,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{48D90CAA-1EB4-4B24-B7FC-3268405E8F89}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{1BA660AC-74A2-44CF-A746-5C345E22CA00}"/>
+    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -11843,25 +11842,25 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22694E59-159D-47FC-B831-A2142A0F7E86}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdowns!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>E68 E69:E70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B63851F7-6511-4630-8EC8-E0867A1FCECE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdowns!$C$1:$C$2</xm:f>
           </x14:formula1>
           <xm:sqref>E16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBAA40A4-9C8F-4DF0-8FBD-7190954D5508}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Calculations!$K$5:$K$19</xm:f>
           </x14:formula1>
           <xm:sqref>E37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1DC9965-BEB3-4C62-8B15-6C9E58C77266}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdowns!$E$1:$E$2</xm:f>
           </x14:formula1>
@@ -11874,20 +11873,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AEB69F-B39F-4D38-94B4-B6D8D4444D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="128"/>
-    <col min="2" max="2" width="9.1796875" style="130"/>
+    <col min="1" max="1" width="9.140625" style="128"/>
+    <col min="2" max="2" width="9.140625" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="172" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="172" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="199" t="s">
         <v>535</v>
@@ -11899,13 +11898,13 @@
       </c>
       <c r="F1" s="199"/>
     </row>
-    <row r="2" spans="1:7" s="172" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="172" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
         <v>92</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="128">
         <f>B4/273*Calculations!$B$14/pressure</f>
         <v>1.2595526082860193</v>
@@ -11952,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="128">
         <f>B5/273*Calculations!$B$14/pressure</f>
         <v>1.4963347433037524</v>
@@ -11976,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="128">
         <f>B6/273*Calculations!$B$14/pressure</f>
         <v>1.6959364180627718</v>
@@ -12000,7 +11999,7 @@
         <v>2.7850000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="128">
         <f>B7/273*Calculations!$B$14/pressure</f>
         <v>1.8446582590976248</v>
@@ -12024,7 +12023,7 @@
         <v>7.4326000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="128">
         <f>B8/273*Calculations!$B$14/pressure</f>
         <v>1.9659844624556488</v>
@@ -12048,7 +12047,7 @@
         <v>1.3150500000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="128">
         <f>B9/273*Calculations!$B$14/pressure</f>
         <v>2.142101941167331</v>
@@ -12072,7 +12071,7 @@
         <v>1.8334900000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="128">
         <f>B10/273*Calculations!$B$14/pressure</f>
         <v>2.3221339707625819</v>
@@ -12096,7 +12095,7 @@
         <v>1.7804899999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="128">
         <f>B11/273*Calculations!$B$14/pressure</f>
         <v>2.5060805512414022</v>
@@ -12120,7 +12119,7 @@
         <v>1.6918099999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="128">
         <f>B12/273*Calculations!$B$14/pressure</f>
         <v>2.6861125808366535</v>
@@ -12144,7 +12143,7 @@
         <v>1.72807E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="128">
         <f>B13/273*Calculations!$B$14/pressure</f>
         <v>2.8896288064792426</v>
@@ -12168,7 +12167,7 @@
         <v>1.9073199999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="128">
         <f>B14/273*Calculations!$B$14/pressure</f>
         <v>3.0657462851909245</v>
@@ -12192,7 +12191,7 @@
         <v>2.0685800000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="128">
         <f>B15/273*Calculations!$B$14/pressure</f>
         <v>3.2614334090663748</v>
@@ -12216,7 +12215,7 @@
         <v>2.2299200000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="128">
         <f>B16/273*Calculations!$B$14/pressure</f>
         <v>3.4649496347089634</v>
@@ -12250,7 +12249,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70E1B118-09C1-43C1-B0F2-AAA475D265FB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdowns!$G$1:$G$3</xm:f>
           </x14:formula1>
@@ -12263,23 +12262,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA0C97C-6EDD-47C1-9C70-F610201CF0D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="83" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="139" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="83" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="139" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="83" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="137" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="137" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="171" t="s">
         <v>357</v>
       </c>
@@ -12291,7 +12290,7 @@
       </c>
       <c r="D1" s="83"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>494</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="171" t="s">
         <v>495</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C57),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C57)))</f>
         <v>initial.mole_fractions.H2</v>
@@ -12327,7 +12326,7 @@
       </c>
       <c r="C4" s="168"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C58),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C58)))</f>
         <v>initial.mole_fractions.CO</v>
@@ -12338,7 +12337,7 @@
       </c>
       <c r="C5" s="168"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C59),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C59)))</f>
         <v>initial.mole_fractions.CO2</v>
@@ -12349,7 +12348,7 @@
       </c>
       <c r="C6" s="168"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C60),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C60)))</f>
         <v/>
@@ -12360,7 +12359,7 @@
       </c>
       <c r="C7" s="168"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C61),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C61)))</f>
         <v/>
@@ -12371,7 +12370,7 @@
       </c>
       <c r="C8" s="168"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C62),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C62)))</f>
         <v/>
@@ -12382,7 +12381,7 @@
       </c>
       <c r="C9" s="168"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C63),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C63)))</f>
         <v>initial.mole_fractions.AR</v>
@@ -12393,7 +12392,7 @@
       </c>
       <c r="C10" s="168"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C64),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C64)))</f>
         <v/>
@@ -12404,7 +12403,7 @@
       </c>
       <c r="C11" s="168"/>
     </row>
-    <row r="12" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C65),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C65)))</f>
         <v/>
@@ -12416,7 +12415,7 @@
       <c r="C12" s="168"/>
       <c r="D12" s="83"/>
     </row>
-    <row r="13" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="171" t="str">
         <f>IF(ISBLANK('User questionnaire'!C66),"",_xlfn.CONCAT("initial.mole_fractions.",UPPER('User questionnaire'!C66)))</f>
         <v/>
@@ -12428,13 +12427,13 @@
       <c r="C13" s="168"/>
       <c r="D13" s="83"/>
     </row>
-    <row r="14" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="171"/>
       <c r="B14" s="83"/>
       <c r="C14" s="168"/>
       <c r="D14" s="83"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="171" t="s">
         <v>496</v>
       </c>
@@ -12447,11 +12446,11 @@
         <v>bar</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="171"/>
       <c r="C16" s="168"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="171" t="s">
         <v>497</v>
       </c>
@@ -12460,7 +12459,7 @@
       </c>
       <c r="C17" s="168"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="171" t="s">
         <v>499</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="171" t="s">
         <v>500</v>
       </c>
@@ -12483,7 +12482,7 @@
       </c>
       <c r="C19" s="168"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="171" t="s">
         <v>501</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="171" t="s">
         <v>502</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>%</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="171" t="s">
         <v>503</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="171" t="s">
         <v>504</v>
       </c>
@@ -12536,7 +12535,7 @@
       </c>
       <c r="D23" s="83"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="171" t="s">
         <v>505</v>
       </c>
@@ -12549,7 +12548,7 @@
         <v>W/m K</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="171" t="s">
         <v>506</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="157" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="171" t="s">
         <v>507</v>
       </c>
@@ -12572,7 +12571,7 @@
       <c r="C26" s="168"/>
       <c r="D26" s="83"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="171" t="s">
         <v>508</v>
       </c>
@@ -12585,10 +12584,10 @@
         <v>K</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="168"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="171" t="s">
         <v>509</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="171" t="s">
         <v>510</v>
       </c>
@@ -12615,13 +12614,13 @@
       </c>
       <c r="D30" s="83"/>
     </row>
-    <row r="31" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="171"/>
       <c r="B31" s="83"/>
       <c r="C31" s="168"/>
       <c r="D31" s="83"/>
     </row>
-    <row r="32" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="171" t="s">
         <v>511</v>
       </c>
@@ -12635,7 +12634,7 @@
       </c>
       <c r="D32" s="83"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="171" t="s">
         <v>512</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>W/m2 K</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="171" t="s">
         <v>513</v>
       </c>
@@ -12661,16 +12660,16 @@
         <v>W/m2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="83"/>
       <c r="C35" s="168"/>
       <c r="D35" s="83"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="171"/>
       <c r="C36" s="168"/>
     </row>
-    <row r="37" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="171" t="s">
         <v>514</v>
       </c>
@@ -12681,7 +12680,7 @@
       <c r="C37" s="168"/>
       <c r="D37" s="83"/>
     </row>
-    <row r="38" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="171" t="s">
         <v>515</v>
       </c>
@@ -12692,7 +12691,7 @@
       <c r="C38" s="168"/>
       <c r="D38" s="83"/>
     </row>
-    <row r="39" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="171" t="s">
         <v>516</v>
       </c>
@@ -12703,18 +12702,18 @@
       <c r="C39" s="168"/>
       <c r="D39" s="83"/>
     </row>
-    <row r="40" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="171"/>
       <c r="B40" s="83"/>
       <c r="C40" s="168"/>
       <c r="D40" s="83"/>
     </row>
-    <row r="41" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="171"/>
       <c r="C41" s="168"/>
       <c r="D41" s="83"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="171" t="s">
         <v>334</v>
       </c>
@@ -12724,7 +12723,7 @@
       </c>
       <c r="C42" s="168"/>
     </row>
-    <row r="43" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="171" t="s">
         <v>335</v>
       </c>
@@ -12735,7 +12734,7 @@
       <c r="C43" s="168"/>
       <c r="D43" s="83"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="171" t="s">
         <v>336</v>
       </c>
@@ -12745,7 +12744,7 @@
       </c>
       <c r="C44" s="168"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="171" t="s">
         <v>337</v>
       </c>
@@ -12755,7 +12754,7 @@
       </c>
       <c r="C45" s="168"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="171" t="s">
         <v>382</v>
       </c>
@@ -12764,7 +12763,7 @@
       </c>
       <c r="C46" s="168"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="171" t="s">
         <v>440</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>end-of-pipe</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>536</v>
       </c>
@@ -12789,32 +12788,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.453125"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" customWidth="1"/>
-    <col min="7" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="107" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="101" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="107" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="101" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="102" customWidth="1"/>
     <col min="13" max="13" width="15" style="102" customWidth="1"/>
-    <col min="14" max="14" width="19.36328125" style="103" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="103" customWidth="1"/>
     <col min="15" max="15" width="52" customWidth="1"/>
-    <col min="16" max="1010" width="10.453125" customWidth="1"/>
+    <col min="16" max="1010" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>319</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
         <v>313</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
         <v>76</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
         <v>203</v>
       </c>
@@ -12926,7 +12925,7 @@
       </c>
       <c r="O5" s="104"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="112" t="s">
         <v>205</v>
       </c>
@@ -12960,7 +12959,7 @@
       </c>
       <c r="P6" s="131"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
         <v>82</v>
       </c>
@@ -12996,7 +12995,7 @@
       </c>
       <c r="P7" s="131"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="112"/>
       <c r="B8" s="113"/>
       <c r="C8" s="114"/>
@@ -13022,7 +13021,7 @@
       </c>
       <c r="P8" s="131"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
         <v>311</v>
       </c>
@@ -13058,7 +13057,7 @@
       </c>
       <c r="P9" s="131"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="112" t="s">
         <v>312</v>
       </c>
@@ -13094,7 +13093,7 @@
       </c>
       <c r="P10" s="131"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="112" t="s">
         <v>314</v>
       </c>
@@ -13129,7 +13128,7 @@
       </c>
       <c r="P11" s="131"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
         <v>315</v>
       </c>
@@ -13154,7 +13153,7 @@
       </c>
       <c r="P12" s="131"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="112" t="s">
         <v>316</v>
       </c>
@@ -13179,7 +13178,7 @@
       </c>
       <c r="P13" s="131"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117" t="s">
         <v>82</v>
       </c>
@@ -13210,7 +13209,7 @@
       </c>
       <c r="P14" s="131"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="109" t="s">
         <v>14</v>
       </c>
@@ -13239,7 +13238,7 @@
       </c>
       <c r="P15" s="131"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="112"/>
       <c r="F16" s="113" t="s">
         <v>295</v>
@@ -13266,7 +13265,7 @@
       </c>
       <c r="P16" s="131"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="112"/>
       <c r="F17" s="113" t="s">
         <v>296</v>
@@ -13293,7 +13292,7 @@
       </c>
       <c r="P17" s="131"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E18" s="112"/>
       <c r="F18" s="113" t="s">
         <v>297</v>
@@ -13320,7 +13319,7 @@
       </c>
       <c r="P18" s="131"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" s="112"/>
       <c r="F19" s="113" t="s">
         <v>298</v>
@@ -13347,7 +13346,7 @@
       </c>
       <c r="P19" s="131"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" s="112"/>
       <c r="F20" s="113" t="s">
         <v>299</v>
@@ -13362,7 +13361,7 @@
       <c r="J20" s="102"/>
       <c r="P20" s="131"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="112" t="s">
         <v>303</v>
       </c>
@@ -13377,7 +13376,7 @@
       <c r="J21" s="102"/>
       <c r="P21" s="131"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="112"/>
       <c r="F22" s="113" t="s">
         <v>301</v>
@@ -13392,7 +13391,7 @@
       <c r="J22" s="102"/>
       <c r="P22" s="131"/>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E23" s="112"/>
       <c r="F23" s="113" t="s">
         <v>302</v>
@@ -13407,7 +13406,7 @@
       <c r="J23" s="102"/>
       <c r="P23" s="131"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E24" s="112"/>
       <c r="F24" s="113" t="s">
         <v>300</v>
@@ -13422,7 +13421,7 @@
       <c r="J24" s="102"/>
       <c r="P24" s="131"/>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="112" t="s">
         <v>42</v>
       </c>
@@ -13439,7 +13438,7 @@
       <c r="J25" s="102"/>
       <c r="P25" s="131"/>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E26" s="112"/>
       <c r="F26" s="113" t="s">
         <v>305</v>
@@ -13454,7 +13453,7 @@
       <c r="J26" s="102"/>
       <c r="P26" s="131"/>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="112" t="s">
         <v>61</v>
       </c>
@@ -13471,7 +13470,7 @@
       <c r="J27" s="102"/>
       <c r="P27" s="131"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E28" s="112"/>
       <c r="F28" s="113" t="s">
         <v>52</v>
@@ -13486,7 +13485,7 @@
       <c r="J28" s="102"/>
       <c r="P28" s="131"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="112"/>
       <c r="F29" s="113" t="s">
         <v>306</v>
@@ -13500,7 +13499,7 @@
       </c>
       <c r="J29" s="102"/>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="112"/>
       <c r="F30" s="113" t="s">
         <v>307</v>
@@ -13514,7 +13513,7 @@
       </c>
       <c r="J30" s="102"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" s="112"/>
       <c r="F31" s="113" t="s">
         <v>308</v>
@@ -13528,7 +13527,7 @@
       </c>
       <c r="J31" s="102"/>
     </row>
-    <row r="32" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="123"/>
       <c r="F32" s="124" t="s">
         <v>309</v>
@@ -13542,7 +13541,7 @@
       </c>
       <c r="J32" s="102"/>
     </row>
-    <row r="33" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="200"/>
       <c r="B33" s="200"/>
       <c r="C33" s="200"/>
@@ -13560,7 +13559,7 @@
       </c>
       <c r="J33" s="104"/>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="107"/>
       <c r="B34" s="200"/>
       <c r="C34" s="200"/>
@@ -13576,7 +13575,7 @@
       <c r="H34" s="126"/>
       <c r="J34" s="102"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="107"/>
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
@@ -13585,7 +13584,7 @@
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="107"/>
       <c r="B36" s="107"/>
       <c r="C36" s="107"/>
@@ -13594,7 +13593,7 @@
       <c r="F36" s="107"/>
       <c r="G36" s="157"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="107"/>
       <c r="B37" s="107"/>
       <c r="C37" s="107"/>
@@ -13603,7 +13602,7 @@
       <c r="F37" s="107"/>
       <c r="G37" s="107"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="107"/>
       <c r="B38" s="107"/>
       <c r="C38" s="107"/>
@@ -13612,7 +13611,7 @@
       <c r="F38" s="107"/>
       <c r="G38" s="107"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="107"/>
       <c r="B39" s="107"/>
       <c r="C39" s="107"/>
@@ -13621,7 +13620,7 @@
       <c r="F39" s="107"/>
       <c r="G39" s="107"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="107"/>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
@@ -13630,7 +13629,7 @@
       <c r="F40" s="107"/>
       <c r="G40" s="107"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="107"/>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
@@ -13639,7 +13638,7 @@
       <c r="F41" s="107"/>
       <c r="G41" s="107"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="107"/>
       <c r="B42" s="107"/>
       <c r="C42" s="107"/>
@@ -13648,7 +13647,7 @@
       <c r="F42" s="107"/>
       <c r="G42" s="107"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="107"/>
       <c r="B43" s="107"/>
       <c r="C43" s="107"/>
@@ -13657,7 +13656,7 @@
       <c r="F43" s="107"/>
       <c r="G43" s="107"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="107"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
@@ -13666,7 +13665,7 @@
       <c r="F44" s="107"/>
       <c r="G44" s="107"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="107"/>
       <c r="B45" s="107"/>
       <c r="C45" s="107"/>
@@ -13675,7 +13674,7 @@
       <c r="F45" s="107"/>
       <c r="G45" s="107"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="107"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
@@ -13684,7 +13683,7 @@
       <c r="F46" s="107"/>
       <c r="G46" s="107"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="107"/>
       <c r="B47" s="107"/>
       <c r="C47" s="107"/>
@@ -13707,42 +13706,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E935D3-EDDB-4C2A-9B76-F3BDEE685904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="153" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="153"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="153"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="153"/>
       <c r="B1" s="153"/>
     </row>
-    <row r="2" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="153"/>
       <c r="B2" s="153"/>
     </row>
-    <row r="3" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="153"/>
       <c r="B3" s="153"/>
     </row>
-    <row r="4" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153"/>
       <c r="B4" s="153"/>
     </row>
-    <row r="5" spans="1:16" s="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="140" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="153"/>
       <c r="B5" s="153"/>
     </row>
-    <row r="6" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="143" t="s">
         <v>357</v>
       </c>
@@ -13782,8 +13781,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="153" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:16" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:16" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153" t="str">
         <f>'User questionnaire'!C16</f>
         <v>type of experiment</v>
@@ -13814,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="153" t="str">
         <f>'User questionnaire'!C18</f>
         <v>length</v>
@@ -13852,7 +13851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="153" t="str">
         <f>'User questionnaire'!C19</f>
         <v>diameter</v>
@@ -13886,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="153" t="str">
         <f>'User questionnaire'!C20</f>
         <v>total mass</v>
@@ -13920,7 +13919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="153" t="str">
         <f>'User questionnaire'!C21</f>
         <v>bed porosity</v>
@@ -13954,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="153" t="str">
         <f>'User questionnaire'!C22</f>
         <v>particle shape</v>
@@ -13981,7 +13980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="153" t="str">
         <f>'User questionnaire'!C23</f>
         <v>particle length</v>
@@ -14016,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="153" t="str">
         <f>'User questionnaire'!C24</f>
         <v>particle diameter</v>
@@ -14057,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="153" t="str">
         <f>'User questionnaire'!C25</f>
         <v>particle thermal conductivity</v>
@@ -14082,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="153" t="str">
         <f>'User questionnaire'!C26</f>
         <v>radial thermal conductivity</v>
@@ -14111,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="153" t="str">
         <f>'User questionnaire'!C27</f>
         <v>surface area to volume ratio</v>
@@ -14145,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="157" t="str">
         <f>'User questionnaire'!C28</f>
         <v>material density</v>
@@ -14179,8 +14178,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="153" t="str">
         <f>'User questionnaire'!C30</f>
         <v>wall temperature</v>
@@ -14219,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="153" t="str">
         <f>'User questionnaire'!C31</f>
         <v>wall thickness</v>
@@ -14233,7 +14232,7 @@
       <c r="D24" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="206"/>
+      <c r="H24" s="203"/>
       <c r="I24" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E31)</f>
         <v>0</v>
@@ -14246,13 +14245,13 @@
         <f>IF(AND(I24=TRUE,J24=TRUE),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="201" t="b">
+      <c r="O24" s="204" t="b">
         <f>AND(COUNTIF(N24:N26,TRUE)&gt;0,COUNTIF(N24:N26,TRUE)=4)</f>
         <v>0</v>
       </c>
       <c r="P24" s="142"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="153" t="str">
         <f>'User questionnaire'!C32</f>
         <v>wall thermal conductivity</v>
@@ -14266,7 +14265,7 @@
       <c r="D25" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="206"/>
+      <c r="H25" s="203"/>
       <c r="I25" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E32)</f>
         <v>0</v>
@@ -14279,10 +14278,10 @@
         <f>IF(AND(I25=TRUE,J25=TRUE),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="201"/>
+      <c r="O25" s="204"/>
       <c r="P25" s="142"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="153" t="str">
         <f>'User questionnaire'!C33</f>
         <v>outside heat transfer coeff</v>
@@ -14296,7 +14295,7 @@
       <c r="D26" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="206"/>
+      <c r="H26" s="203"/>
       <c r="I26" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E33)</f>
         <v>0</v>
@@ -14309,10 +14308,10 @@
         <f t="shared" ref="N26" si="8">IF(AND(I26=TRUE,J26=TRUE),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="201"/>
+      <c r="O26" s="204"/>
       <c r="P26" s="142"/>
     </row>
-    <row r="27" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="153" t="str">
         <f>'User questionnaire'!C34</f>
         <v>overall heat transfer coeff</v>
@@ -14344,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="153" t="str">
         <f>'User questionnaire'!C35</f>
         <v>heat flux</v>
@@ -14369,8 +14368,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="153" t="str">
         <f>'User questionnaire'!C37</f>
         <v>active catalyst/metal</v>
@@ -14408,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="153" t="str">
         <f>'User questionnaire'!C38</f>
         <v>metal loading</v>
@@ -14442,7 +14441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="153" t="str">
         <f>'User questionnaire'!C39</f>
         <v>particle porosity</v>
@@ -14476,12 +14475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="153" t="str">
         <f>'User questionnaire'!C41</f>
         <v>H2 uptake</v>
       </c>
-      <c r="B34" s="205" t="s">
+      <c r="B34" s="201" t="s">
         <v>417</v>
       </c>
       <c r="C34" t="s">
@@ -14490,7 +14489,7 @@
       <c r="D34" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="206" t="b">
+      <c r="H34" s="203" t="b">
         <v>1</v>
       </c>
       <c r="I34" s="82" t="b">
@@ -14505,7 +14504,7 @@
         <f t="shared" ref="N34:N40" si="11">IF(AND(I34=TRUE,J34=TRUE),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="201" t="b">
+      <c r="O34" s="204" t="b">
         <f>IF(AND(COUNTIF(N34:N40,TRUE)=1,COUNTA('User questionnaire'!E41:E47)=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -14514,19 +14513,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="153" t="str">
         <f>'User questionnaire'!C42</f>
         <v>CO uptake</v>
       </c>
-      <c r="B35" s="204"/>
+      <c r="B35" s="202"/>
       <c r="C35" t="s">
         <v>232</v>
       </c>
       <c r="D35" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="206"/>
+      <c r="H35" s="203"/>
       <c r="I35" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E42)</f>
         <v>0</v>
@@ -14539,21 +14538,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O35" s="201"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O35" s="204"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="153" t="str">
         <f>'User questionnaire'!C43</f>
         <v>NP diameter</v>
       </c>
-      <c r="B36" s="204"/>
+      <c r="B36" s="202"/>
       <c r="C36" t="s">
         <v>232</v>
       </c>
       <c r="D36" t="s">
         <v>228</v>
       </c>
-      <c r="H36" s="206"/>
+      <c r="H36" s="203"/>
       <c r="I36" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E43)</f>
         <v>0</v>
@@ -14566,21 +14565,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O36" s="201"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O36" s="204"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="153" t="str">
         <f>'User questionnaire'!C44</f>
         <v>dispersion</v>
       </c>
-      <c r="B37" s="204"/>
+      <c r="B37" s="202"/>
       <c r="C37" t="s">
         <v>232</v>
       </c>
       <c r="D37" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="206"/>
+      <c r="H37" s="203"/>
       <c r="I37" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E44)</f>
         <v>1</v>
@@ -14593,21 +14592,21 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="O37" s="201"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O37" s="204"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="153" t="str">
         <f>'User questionnaire'!C45</f>
         <v>SSA (only metal)</v>
       </c>
-      <c r="B38" s="204"/>
+      <c r="B38" s="202"/>
       <c r="C38" t="s">
         <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="206"/>
+      <c r="H38" s="203"/>
       <c r="I38" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E45)</f>
         <v>0</v>
@@ -14620,21 +14619,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O38" s="201"/>
-    </row>
-    <row r="39" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O38" s="204"/>
+    </row>
+    <row r="39" spans="1:16" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="157" t="str">
         <f>'User questionnaire'!C46</f>
         <v>volume-specific surface area</v>
       </c>
-      <c r="B39" s="204"/>
+      <c r="B39" s="202"/>
       <c r="C39" s="157" t="s">
         <v>232</v>
       </c>
       <c r="D39" s="157" t="s">
         <v>228</v>
       </c>
-      <c r="H39" s="206"/>
+      <c r="H39" s="203"/>
       <c r="I39" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E46)</f>
         <v>0</v>
@@ -14647,21 +14646,21 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O39" s="201"/>
-    </row>
-    <row r="40" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O39" s="204"/>
+    </row>
+    <row r="40" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="153" t="str">
         <f>'User questionnaire'!C47</f>
         <v>ratio catalytic / geometric area</v>
       </c>
-      <c r="B40" s="204"/>
+      <c r="B40" s="202"/>
       <c r="C40" s="142" t="s">
         <v>232</v>
       </c>
       <c r="D40" s="142" t="s">
         <v>228</v>
       </c>
-      <c r="H40" s="206"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E47)</f>
         <v>0</v>
@@ -14674,14 +14673,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O40" s="201"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O40" s="204"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="153" t="str">
         <f>'User questionnaire'!C49</f>
         <v>GHSV</v>
       </c>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="201" t="s">
         <v>418</v>
       </c>
       <c r="C42" t="s">
@@ -14690,7 +14689,7 @@
       <c r="D42" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="206" t="b">
+      <c r="H42" s="203" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="82" t="b">
@@ -14705,7 +14704,7 @@
         <f t="shared" ref="N42:N48" si="12">IF(AND(I42=TRUE,J42=TRUE),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="201" t="b">
+      <c r="O42" s="204" t="b">
         <f>OR(IF(AND(COUNTIF(N42:N45,TRUE)=1,COUNTA('User questionnaire'!E49:E52)=1),TRUE,FALSE),AND(O23,IF('User questionnaire'!E68="no",TRUE,FALSE),IF('User questionnaire'!E69="no",TRUE,FALSE)))</f>
         <v>1</v>
       </c>
@@ -14714,19 +14713,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="153" t="str">
         <f>'User questionnaire'!C50</f>
         <v>WHSV</v>
       </c>
-      <c r="B43" s="204"/>
+      <c r="B43" s="202"/>
       <c r="C43" t="s">
         <v>232</v>
       </c>
       <c r="D43" t="s">
         <v>228</v>
       </c>
-      <c r="H43" s="206"/>
+      <c r="H43" s="203"/>
       <c r="I43" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E50)</f>
         <v>0</v>
@@ -14739,21 +14738,21 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O43" s="201"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O43" s="204"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="153" t="str">
         <f>'User questionnaire'!C51</f>
         <v>volumetric flow rate</v>
       </c>
-      <c r="B44" s="204"/>
+      <c r="B44" s="202"/>
       <c r="C44" t="s">
         <v>232</v>
       </c>
       <c r="D44" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="206"/>
+      <c r="H44" s="203"/>
       <c r="I44" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E51)</f>
         <v>1</v>
@@ -14766,21 +14765,21 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="O44" s="201"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O44" s="204"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="153" t="str">
         <f>'User questionnaire'!C52</f>
         <v>linear velocity</v>
       </c>
-      <c r="B45" s="204"/>
+      <c r="B45" s="202"/>
       <c r="C45" t="s">
         <v>232</v>
       </c>
       <c r="D45" t="s">
         <v>228</v>
       </c>
-      <c r="H45" s="206"/>
+      <c r="H45" s="203"/>
       <c r="I45" s="82" t="b">
         <f>ISNUMBER('User questionnaire'!E52)</f>
         <v>0</v>
@@ -14793,9 +14792,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O45" s="201"/>
-    </row>
-    <row r="46" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O45" s="204"/>
+    </row>
+    <row r="46" spans="1:16" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="161"/>
       <c r="H46" s="162"/>
       <c r="I46" s="82"/>
@@ -14803,7 +14802,7 @@
       <c r="N46" s="82"/>
       <c r="O46" s="160"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="153" t="str">
         <f>'User questionnaire'!C54</f>
         <v>pressure</v>
@@ -14837,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="153" t="str">
         <f>'User questionnaire'!C55</f>
         <v>reactor inlet temperature</v>
@@ -14871,7 +14870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="153" t="str">
         <f>'User questionnaire'!C57</f>
         <v>H2</v>
@@ -14885,7 +14884,7 @@
       <c r="D50" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="202" t="s">
+      <c r="E50" s="205" t="s">
         <v>229</v>
       </c>
       <c r="H50" s="82" t="b">
@@ -14899,7 +14898,7 @@
         <f>IF(AND('User questionnaire'!E57&gt;=0,'User questionnaire'!E57&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K50" s="203" t="b">
+      <c r="K50" s="206" t="b">
         <f>IF(SUM('User questionnaire'!E57:E66)=1,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -14907,7 +14906,7 @@
         <f t="shared" ref="N50:N59" si="13">IF(AND(I50=TRUE,J50=TRUE),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="O50" s="204" t="b">
+      <c r="O50" s="202" t="b">
         <f>AND(COUNTIF(N50:N59,TRUE)&gt;0,COUNTIF(N50:N59,TRUE)=COUNTA('User questionnaire'!E57:E66),K50)</f>
         <v>1</v>
       </c>
@@ -14916,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="153" t="str">
         <f>'User questionnaire'!C58</f>
         <v>CO</v>
@@ -14930,7 +14929,7 @@
       <c r="D51" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="202"/>
+      <c r="E51" s="205"/>
       <c r="H51" s="82" t="b">
         <v>0</v>
       </c>
@@ -14942,14 +14941,14 @@
         <f>IF(AND('User questionnaire'!E58&gt;=0,'User questionnaire'!E58&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K51" s="203"/>
+      <c r="K51" s="206"/>
       <c r="N51" s="82" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O51" s="204"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O51" s="202"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="153" t="str">
         <f>'User questionnaire'!C59</f>
         <v>CO2</v>
@@ -14963,7 +14962,7 @@
       <c r="D52" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="202"/>
+      <c r="E52" s="205"/>
       <c r="H52" s="82" t="b">
         <v>0</v>
       </c>
@@ -14975,14 +14974,14 @@
         <f>IF(AND('User questionnaire'!E59&gt;=0,'User questionnaire'!E59&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K52" s="203"/>
+      <c r="K52" s="206"/>
       <c r="N52" s="82" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O52" s="204"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O52" s="202"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="153">
         <f>'User questionnaire'!C60</f>
         <v>0</v>
@@ -14996,7 +14995,7 @@
       <c r="D53" t="s">
         <v>238</v>
       </c>
-      <c r="E53" s="202"/>
+      <c r="E53" s="205"/>
       <c r="H53" s="82" t="b">
         <v>0</v>
       </c>
@@ -15008,14 +15007,14 @@
         <f>IF(AND('User questionnaire'!E60&gt;=0,'User questionnaire'!E60&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K53" s="203"/>
+      <c r="K53" s="206"/>
       <c r="N53" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O53" s="204"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O53" s="202"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="153">
         <f>'User questionnaire'!C61</f>
         <v>0</v>
@@ -15029,7 +15028,7 @@
       <c r="D54" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="202"/>
+      <c r="E54" s="205"/>
       <c r="H54" s="82" t="b">
         <v>0</v>
       </c>
@@ -15041,14 +15040,14 @@
         <f>IF(AND('User questionnaire'!E61&gt;=0,'User questionnaire'!E61&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K54" s="203"/>
+      <c r="K54" s="206"/>
       <c r="N54" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O54" s="204"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O54" s="202"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="153">
         <f>'User questionnaire'!C62</f>
         <v>0</v>
@@ -15062,7 +15061,7 @@
       <c r="D55" t="s">
         <v>238</v>
       </c>
-      <c r="E55" s="202"/>
+      <c r="E55" s="205"/>
       <c r="H55" s="82" t="b">
         <v>0</v>
       </c>
@@ -15074,14 +15073,14 @@
         <f>IF(AND('User questionnaire'!E62&gt;=0,'User questionnaire'!E62&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K55" s="203"/>
+      <c r="K55" s="206"/>
       <c r="N55" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O55" s="204"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O55" s="202"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="153" t="str">
         <f>'User questionnaire'!C63</f>
         <v>Ar</v>
@@ -15095,7 +15094,7 @@
       <c r="D56" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="202"/>
+      <c r="E56" s="205"/>
       <c r="H56" s="82" t="b">
         <v>0</v>
       </c>
@@ -15107,14 +15106,14 @@
         <f>IF(AND('User questionnaire'!E63&gt;=0,'User questionnaire'!E63&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K56" s="203"/>
+      <c r="K56" s="206"/>
       <c r="N56" s="82" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O56" s="204"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O56" s="202"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="153">
         <f>'User questionnaire'!C64</f>
         <v>0</v>
@@ -15128,7 +15127,7 @@
       <c r="D57" t="s">
         <v>238</v>
       </c>
-      <c r="E57" s="202"/>
+      <c r="E57" s="205"/>
       <c r="H57" s="82" t="b">
         <v>0</v>
       </c>
@@ -15140,14 +15139,14 @@
         <f>IF(AND('User questionnaire'!E64&gt;=0,'User questionnaire'!E64&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K57" s="203"/>
+      <c r="K57" s="206"/>
       <c r="N57" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O57" s="204"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O57" s="202"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="153">
         <f>'User questionnaire'!C65</f>
         <v>0</v>
@@ -15161,7 +15160,7 @@
       <c r="D58" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="202"/>
+      <c r="E58" s="205"/>
       <c r="H58" s="82" t="b">
         <v>0</v>
       </c>
@@ -15173,14 +15172,14 @@
         <f>IF(AND('User questionnaire'!E65&gt;=0,'User questionnaire'!E65&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K58" s="203"/>
+      <c r="K58" s="206"/>
       <c r="N58" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O58" s="204"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O58" s="202"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="153">
         <f>'User questionnaire'!C66</f>
         <v>0</v>
@@ -15194,7 +15193,7 @@
       <c r="D59" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="202"/>
+      <c r="E59" s="205"/>
       <c r="H59" s="82" t="b">
         <v>0</v>
       </c>
@@ -15206,14 +15205,14 @@
         <f>IF(AND('User questionnaire'!E66&gt;=0,'User questionnaire'!E66&lt;=1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K59" s="203"/>
+      <c r="K59" s="206"/>
       <c r="N59" s="82" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O59" s="204"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O59" s="202"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="153" t="str">
         <f>'User questionnaire'!C68</f>
         <v>isothermal</v>
@@ -15235,7 +15234,7 @@
         <f>I61</f>
         <v>1</v>
       </c>
-      <c r="O61" s="201" t="b">
+      <c r="O61" s="204" t="b">
         <f>AND(N61,N62,NOT(AND(IF('User questionnaire'!E68="yes",TRUE,FALSE),IF('User questionnaire'!E69="yes",TRUE,FALSE))))</f>
         <v>1</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="153" t="str">
         <f>'User questionnaire'!C69</f>
         <v>adiabatic</v>
@@ -15266,9 +15265,9 @@
         <f>I62</f>
         <v>1</v>
       </c>
-      <c r="O62" s="201"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O62" s="204"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="153" t="str">
         <f>'User questionnaire'!C70</f>
         <v>external mass transfer resistance</v>
@@ -15297,11 +15296,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H34:H40"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="O24:O26"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="O34:O40"/>
@@ -15309,6 +15303,11 @@
     <mergeCell ref="E50:E59"/>
     <mergeCell ref="K50:K59"/>
     <mergeCell ref="O50:O59"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <conditionalFormatting sqref="I51:J59 I43:N46 I47:P50 I41:P42 L51:N59 I18:J18 L18:P18 I17:P17 I36:K50 K20:M21 I34:P34 N15:O15 P20:P21 P34:P40 I60:P61 I63:P63 I62:N62 P62 I22:P32 I11:P14 I34:N40">
     <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
@@ -15516,21 +15515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF768BF-18B5-4D90-8E52-36C8D58433DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="79.453125" customWidth="1"/>
-    <col min="3" max="3" width="51.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="143" t="s">
         <v>360</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>363</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>364</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>365</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>370</v>
       </c>
@@ -15587,7 +15586,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>398</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>399</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -15614,7 +15613,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="154" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="154" t="s">
         <v>442</v>
       </c>
@@ -15622,7 +15621,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>421</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>439</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>441</v>
       </c>
@@ -15646,7 +15645,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>445</v>
       </c>
@@ -15657,7 +15656,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>457</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>458</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>469</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>442</v>
       </c>
@@ -15689,7 +15688,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>470</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>487</v>
       </c>
@@ -15705,7 +15704,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>490</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>524</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>526</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>527</v>
       </c>
@@ -15740,7 +15739,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>531</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>537</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>538</v>
       </c>
@@ -15771,22 +15770,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E119287-183C-4D3C-B3A0-67BB0D81A565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6328125" customWidth="1"/>
-    <col min="2" max="2" width="81.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="100" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="143" t="s">
         <v>255</v>
       </c>
@@ -15809,7 +15808,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -15829,7 +15828,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>261</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>290</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -15946,7 +15945,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="135" t="s">
         <v>279</v>
       </c>
@@ -15966,7 +15965,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>270</v>
       </c>
@@ -15986,7 +15985,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>273</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -16020,7 +16019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>317</v>
       </c>
@@ -16060,7 +16059,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>403</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>415</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>422</v>
       </c>
@@ -16139,7 +16138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>443</v>
       </c>
@@ -16153,7 +16152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>447</v>
       </c>
@@ -16167,7 +16166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>473</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -16207,20 +16206,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A53AAA-412D-43D6-8155-A4444378ED27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="143" t="s">
         <v>433</v>
       </c>
